--- a/input/static_data/cost/season_16/player_cost_GW12.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW12.xlsx
@@ -407,37 +407,37 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="10">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L19" t="n">
-        <v>5800000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="20">
@@ -939,37 +939,37 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L23" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="24">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1015,37 +1015,37 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L25" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="26">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L26" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="27">
@@ -1205,37 +1205,37 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L30" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="31">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="34">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1433,37 +1433,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L36" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="37">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L38" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="39">
@@ -1585,37 +1585,37 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L40" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="41">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L45" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="46">
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L48" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="49">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4300000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="50">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L51" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="52">
@@ -2193,37 +2193,37 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L56" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="57">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L65" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L69" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3029,37 +3029,37 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L78" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="79">
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L80" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="81">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4400000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L97" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="98">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6400000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L111" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L117" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="118">
@@ -4739,37 +4739,37 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L123" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="124">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>4900000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L153" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L154" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L156" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="157">
@@ -6069,37 +6069,37 @@
         <v>157.0</v>
       </c>
       <c r="B158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L158" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="159">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L159" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="160">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L162" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="163">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L166" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="167">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L168" t="n">
-        <v>5700000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="169">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L176" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6200000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5400000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="180">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L184" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="185">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L195" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="201">
@@ -7741,37 +7741,37 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L202" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="203">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L205" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="206">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="207">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L224" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="225">
@@ -8881,37 +8881,37 @@
         <v>231.0</v>
       </c>
       <c r="B232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L232" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="233">
@@ -8919,37 +8919,37 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L233" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="234">
@@ -9071,37 +9071,37 @@
         <v>236.0</v>
       </c>
       <c r="B237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L237" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="238">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L243" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="244">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>4900000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L266" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L268" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="269">
@@ -10363,37 +10363,37 @@
         <v>270.0</v>
       </c>
       <c r="B271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L271" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="272">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L275" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="276">
@@ -11617,37 +11617,37 @@
         <v>303.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L304" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="305">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>5200000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="310">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L315" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="316">
@@ -12149,37 +12149,37 @@
         <v>317.0</v>
       </c>
       <c r="B318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L318" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="319">
@@ -12263,37 +12263,37 @@
         <v>320.0</v>
       </c>
       <c r="B321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L321" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="322">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="C331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="D331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="E331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="F331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="G331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="H331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="I331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="J331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="K331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
       <c r="L331" t="n">
-        <v>1.04E7</v>
+        <v>1.02E7</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L333" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L341" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="342">
@@ -13251,37 +13251,37 @@
         <v>346.0</v>
       </c>
       <c r="B347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L347" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="348">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L348" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L351" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="352">
@@ -13441,37 +13441,37 @@
         <v>351.0</v>
       </c>
       <c r="B352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L352" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="353">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L356" t="n">
-        <v>5800000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="357">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L357" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7500000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="365">
@@ -14999,37 +14999,37 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L393" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="394">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8300000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L396" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="397">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L397" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9400000.0</v>
+        <v>9100000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15417,37 +15417,37 @@
         <v>403.0</v>
       </c>
       <c r="B404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L404" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="405">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L410" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="411">
@@ -15759,37 +15759,37 @@
         <v>412.0</v>
       </c>
       <c r="B413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L413" t="n">
-        <v>5200000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="414">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7500000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7700000.0</v>
+        <v>7900000.0</v>
       </c>
     </row>
     <row r="417">
@@ -15911,37 +15911,37 @@
         <v>416.0</v>
       </c>
       <c r="B417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L417" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="418">
@@ -16101,37 +16101,37 @@
         <v>421.0</v>
       </c>
       <c r="B422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L422" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="423">
@@ -16177,37 +16177,37 @@
         <v>423.0</v>
       </c>
       <c r="B424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L424" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="425">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8300000.0</v>
+        <v>8200000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.18E7</v>
+        <v>1.13E7</v>
       </c>
     </row>
     <row r="430">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="431">
@@ -16709,37 +16709,37 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L438" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="439">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17203,37 +17203,37 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L451" t="n">
-        <v>4300000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="452">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L452" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L458" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="459">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L473" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L475" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="476">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8600000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L486" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="487">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7300000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="491">
@@ -19407,37 +19407,37 @@
         <v>508.0</v>
       </c>
       <c r="B509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L509" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="510">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L510" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="511">
@@ -19483,37 +19483,37 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L511" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="512">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19635,37 +19635,37 @@
         <v>514.0</v>
       </c>
       <c r="B515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L515" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="516">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L517" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="518">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5500000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20053,37 +20053,37 @@
         <v>525.0</v>
       </c>
       <c r="B526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L526" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="527">
@@ -20433,37 +20433,37 @@
         <v>535.0</v>
       </c>
       <c r="B536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L536" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="537">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L547" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="550">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>5900000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.1E7</v>
+        <v>1.06E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8500000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="576">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6800000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.28E7</v>
+        <v>1.31E7</v>
       </c>
     </row>
     <row r="583">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.12E7</v>
+        <v>1.11E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>9400000.0</v>
+        <v>9800000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6500000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L603" t="n">
-        <v>7100000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="604">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L606" t="n">
-        <v>7500000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.13E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="C618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="D618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="E618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="F618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="G618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="H618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="I618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="J618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="K618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
       <c r="L618" t="n">
-        <v>9700000.0</v>
+        <v>9800000.0</v>
       </c>
     </row>
     <row r="619">
